--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S8/S8_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S8/S8_dampingfactor.xlsx
@@ -14,222 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>94.3106173009903</t>
-  </si>
-  <si>
-    <t>95.80417939604993</t>
-  </si>
-  <si>
-    <t>96.95055381111763</t>
-  </si>
-  <si>
-    <t>97.9440783041763</t>
-  </si>
-  <si>
-    <t>99.23092907613801</t>
-  </si>
-  <si>
-    <t>100.38530991569189</t>
-  </si>
-  <si>
-    <t>101.19148407577379</t>
-  </si>
-  <si>
-    <t>102.1452675891101</t>
-  </si>
-  <si>
-    <t>103.08201925399399</t>
-  </si>
-  <si>
-    <t>104.10393016114006</t>
-  </si>
-  <si>
-    <t>105.46647803733481</t>
-  </si>
-  <si>
-    <t>107.25482212484042</t>
-  </si>
-  <si>
-    <t>109.12832545460819</t>
-  </si>
-  <si>
-    <t>111.00182878437596</t>
-  </si>
-  <si>
-    <t>112.87533211414375</t>
-  </si>
-  <si>
-    <t>114.74883544391153</t>
-  </si>
-  <si>
-    <t>116.6223387736793</t>
-  </si>
-  <si>
-    <t>118.49584210344707</t>
-  </si>
-  <si>
-    <t>120.36934543321486</t>
-  </si>
-  <si>
-    <t>122.24284876298265</t>
-  </si>
-  <si>
-    <t>124.11635209275042</t>
-  </si>
-  <si>
-    <t>125.98985542251819</t>
-  </si>
-  <si>
-    <t>127.86335875228598</t>
-  </si>
-  <si>
-    <t>129.73686208205376</t>
-  </si>
-  <si>
-    <t>131.61036541182153</t>
-  </si>
-  <si>
-    <t>133.4838687415893</t>
-  </si>
-  <si>
-    <t>135.35737207135708</t>
-  </si>
-  <si>
-    <t>137.23087540112488</t>
-  </si>
-  <si>
-    <t>139.10437873089265</t>
-  </si>
-  <si>
-    <t>140.97788206066042</t>
-  </si>
-  <si>
-    <t>142.85138539042822</t>
-  </si>
-  <si>
-    <t>144.724888720196</t>
-  </si>
-  <si>
-    <t>146.59839204996376</t>
-  </si>
-  <si>
-    <t>148.47189537973156</t>
-  </si>
-  <si>
-    <t>149.4938062868776</t>
-  </si>
-  <si>
-    <t>0.035765853956487154</t>
-  </si>
-  <si>
-    <t>0.045386226529996423</t>
-  </si>
-  <si>
-    <t>0.062079852872875964</t>
-  </si>
-  <si>
-    <t>0.07657421430968185</t>
-  </si>
-  <si>
-    <t>0.10162675202036696</t>
-  </si>
-  <si>
-    <t>0.13018707068410587</t>
-  </si>
-  <si>
-    <t>0.16218976359709142</t>
-  </si>
-  <si>
-    <t>0.21253320133968076</t>
-  </si>
-  <si>
-    <t>0.2880894369496615</t>
-  </si>
-  <si>
-    <t>0.3839974220793102</t>
-  </si>
-  <si>
-    <t>0.5442792344168991</t>
-  </si>
-  <si>
-    <t>0.7022937571545133</t>
-  </si>
-  <si>
-    <t>0.7910792933428715</t>
-  </si>
-  <si>
-    <t>0.8305125520639388</t>
-  </si>
-  <si>
-    <t>0.8094201008841305</t>
-  </si>
-  <si>
-    <t>0.7400303168619161</t>
-  </si>
-  <si>
-    <t>0.6707127894475484</t>
-  </si>
-  <si>
-    <t>0.6196456402512487</t>
-  </si>
-  <si>
-    <t>0.5690887564425464</t>
-  </si>
-  <si>
-    <t>0.5247759746419016</t>
-  </si>
-  <si>
-    <t>0.4965820705062822</t>
-  </si>
-  <si>
-    <t>0.47806315731670684</t>
-  </si>
-  <si>
-    <t>0.46657577225513525</t>
-  </si>
-  <si>
-    <t>0.4502065620710715</t>
-  </si>
-  <si>
-    <t>0.45053009930175164</t>
-  </si>
-  <si>
-    <t>0.44692278214061615</t>
-  </si>
-  <si>
-    <t>0.4416338695989197</t>
-  </si>
-  <si>
-    <t>0.4392532859005918</t>
-  </si>
-  <si>
-    <t>0.4422688507509044</t>
-  </si>
-  <si>
-    <t>0.44793297416501154</t>
-  </si>
-  <si>
-    <t>0.4515329984042147</t>
-  </si>
-  <si>
-    <t>0.4539490742977719</t>
-  </si>
-  <si>
-    <t>0.46509376058329094</t>
-  </si>
-  <si>
-    <t>0.4755024712102828</t>
-  </si>
-  <si>
-    <t>0.4701647631393706</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -602,283 +392,283 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="A2">
+        <v>94.3106173009903</v>
+      </c>
+      <c r="B2">
+        <v>0.03576585395648715</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="A3">
+        <v>95.80417939604993</v>
+      </c>
+      <c r="B3">
+        <v>0.04538622652999642</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+      <c r="A4">
+        <v>96.95055381111763</v>
+      </c>
+      <c r="B4">
+        <v>0.06207985287287596</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+      <c r="A5">
+        <v>97.9440783041763</v>
+      </c>
+      <c r="B5">
+        <v>0.07657421430968185</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
+      <c r="A6">
+        <v>99.23092907613801</v>
+      </c>
+      <c r="B6">
+        <v>0.101626752020367</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
+      <c r="A7">
+        <v>100.3853099156919</v>
+      </c>
+      <c r="B7">
+        <v>0.1301870706841059</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
+      <c r="A8">
+        <v>101.1914840757738</v>
+      </c>
+      <c r="B8">
+        <v>0.1621897635970914</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
+      <c r="A9">
+        <v>102.1452675891101</v>
+      </c>
+      <c r="B9">
+        <v>0.2125332013396808</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
+      <c r="A10">
+        <v>103.082019253994</v>
+      </c>
+      <c r="B10">
+        <v>0.2880894369496615</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
+      <c r="A11">
+        <v>104.1039301611401</v>
+      </c>
+      <c r="B11">
+        <v>0.3839974220793102</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
+      <c r="A12">
+        <v>105.4664780373348</v>
+      </c>
+      <c r="B12">
+        <v>0.5442792344168991</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
+      <c r="A13">
+        <v>107.2548221248404</v>
+      </c>
+      <c r="B13">
+        <v>0.7022937571545133</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
+      <c r="A14">
+        <v>109.1283254546082</v>
+      </c>
+      <c r="B14">
+        <v>0.7910792933428715</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
+      <c r="A15">
+        <v>111.001828784376</v>
+      </c>
+      <c r="B15">
+        <v>0.8305125520639388</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
+      <c r="A16">
+        <v>112.8753321141437</v>
+      </c>
+      <c r="B16">
+        <v>0.8094201008841305</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
+      <c r="A17">
+        <v>114.7488354439115</v>
+      </c>
+      <c r="B17">
+        <v>0.7400303168619161</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
+      <c r="A18">
+        <v>116.6223387736793</v>
+      </c>
+      <c r="B18">
+        <v>0.6707127894475484</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
+      <c r="A19">
+        <v>118.4958421034471</v>
+      </c>
+      <c r="B19">
+        <v>0.6196456402512487</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
+      <c r="A20">
+        <v>120.3693454332149</v>
+      </c>
+      <c r="B20">
+        <v>0.5690887564425464</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
+      <c r="A21">
+        <v>122.2428487629826</v>
+      </c>
+      <c r="B21">
+        <v>0.5247759746419016</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
+      <c r="A22">
+        <v>124.1163520927504</v>
+      </c>
+      <c r="B22">
+        <v>0.4965820705062822</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
+      <c r="A23">
+        <v>125.9898554225182</v>
+      </c>
+      <c r="B23">
+        <v>0.4780631573167068</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
+      <c r="A24">
+        <v>127.863358752286</v>
+      </c>
+      <c r="B24">
+        <v>0.4665757722551352</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
+      <c r="A25">
+        <v>129.7368620820538</v>
+      </c>
+      <c r="B25">
+        <v>0.4502065620710715</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
+      <c r="A26">
+        <v>131.6103654118215</v>
+      </c>
+      <c r="B26">
+        <v>0.4505300993017516</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
+      <c r="A27">
+        <v>133.4838687415893</v>
+      </c>
+      <c r="B27">
+        <v>0.4469227821406161</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
+      <c r="A28">
+        <v>135.3573720713571</v>
+      </c>
+      <c r="B28">
+        <v>0.4416338695989197</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
+      <c r="A29">
+        <v>137.2308754011249</v>
+      </c>
+      <c r="B29">
+        <v>0.4392532859005918</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
+      <c r="A30">
+        <v>139.1043787308926</v>
+      </c>
+      <c r="B30">
+        <v>0.4422688507509044</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
+      <c r="A31">
+        <v>140.9778820606604</v>
+      </c>
+      <c r="B31">
+        <v>0.4479329741650115</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
+      <c r="A32">
+        <v>142.8513853904282</v>
+      </c>
+      <c r="B32">
+        <v>0.4515329984042147</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
+      <c r="A33">
+        <v>144.724888720196</v>
+      </c>
+      <c r="B33">
+        <v>0.4539490742977719</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
+      <c r="A34">
+        <v>146.5983920499638</v>
+      </c>
+      <c r="B34">
+        <v>0.4650937605832909</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
+      <c r="A35">
+        <v>148.4718953797316</v>
+      </c>
+      <c r="B35">
+        <v>0.4755024712102828</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
+      <c r="A36">
+        <v>149.4938062868776</v>
+      </c>
+      <c r="B36">
+        <v>0.4701647631393706</v>
       </c>
     </row>
   </sheetData>
